--- a/Luban/ExcelConfig/Datas/status.xlsx
+++ b/Luban/ExcelConfig/Datas/status.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,34 +95,34 @@
     <t>resist_pri</t>
   </si>
   <si>
+    <t>exclu_pri</t>
+  </si>
+  <si>
     <t>keep_pri</t>
   </si>
   <si>
-    <t>exclu_pri</t>
+    <t>dis_pri</t>
   </si>
   <si>
     <t>run_pri</t>
   </si>
   <si>
-    <t>dis_pri</t>
-  </si>
-  <si>
     <t>sp_pass</t>
   </si>
   <si>
     <t>sp_inter</t>
   </si>
   <si>
+    <t>sp_exclu</t>
+  </si>
+  <si>
     <t>sp_keep</t>
   </si>
   <si>
-    <t>sp_exclu</t>
+    <t>sp_dis</t>
   </si>
   <si>
     <t>sp_run</t>
-  </si>
-  <si>
-    <t>sp_dis</t>
   </si>
   <si>
     <t>allow_reenter</t>
@@ -173,36 +186,36 @@
     <t>阻挡优先级</t>
   </si>
   <si>
+    <t>排挤优先级</t>
+  </si>
+  <si>
     <t>保持优先级</t>
   </si>
   <si>
-    <t>排挤优先级</t>
+    <t>禁用优先级</t>
   </si>
   <si>
     <t>运行优先级</t>
   </si>
   <si>
-    <t>禁用优先级</t>
-  </si>
-  <si>
     <t>指定通过</t>
   </si>
   <si>
     <t>指定拦截</t>
   </si>
   <si>
+    <t>指定排挤</t>
+  </si>
+  <si>
     <t>指定保持</t>
   </si>
   <si>
-    <t>指定排挤</t>
+    <t>指定禁用</t>
   </si>
   <si>
     <t>指定运行</t>
   </si>
   <si>
-    <t>指定禁用</t>
-  </si>
-  <si>
     <t>允许重进</t>
   </si>
   <si>
@@ -281,7 +294,7 @@
     <t>固定值</t>
   </si>
   <si>
-    <t>流血`1`0`1`物攻/0.5/0;&gt;真实伤害|`0.5</t>
+    <t>流血`1`0`1`物攻/0.5/0;&gt;真实伤害`0.5</t>
   </si>
   <si>
     <t>霸体</t>
@@ -308,13 +321,13 @@
     <t>Ranshao</t>
   </si>
   <si>
-    <t>燃烧`1`0`1`物攻/0.5/0;&gt;物理伤害|`0.5</t>
+    <t>燃烧`1`0`1`物攻/0.5/0;&gt;物理伤害`0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -930,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,6 +958,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,18 +1285,18 @@
   <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="AB10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="AJ10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF18" sqref="AF18"/>
+      <selection pane="bottomRight" activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
@@ -1313,12 +1329,10 @@
     <col min="34" max="35" width="8.875" style="2" customWidth="1"/>
     <col min="36" max="41" width="10.875" style="2" customWidth="1"/>
     <col min="42" max="42" width="8.875" style="2" customWidth="1"/>
-    <col min="43" max="43" width="12.875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="8.875" style="2" customWidth="1"/>
-    <col min="45" max="45" width="12.875" style="2" customWidth="1"/>
-    <col min="46" max="47" width="8.875" style="2" customWidth="1"/>
+    <col min="43" max="44" width="12.875" style="2" customWidth="1"/>
+    <col min="45" max="47" width="8.875" style="2" customWidth="1"/>
     <col min="48" max="48" width="13.25" style="2" customWidth="1"/>
-    <col min="49" max="49" width="33.5" style="2" customWidth="1"/>
+    <col min="49" max="49" width="33.125" style="2" customWidth="1"/>
     <col min="50" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1420,34 +1434,34 @@
       <c r="AK3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AM3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AO3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AP3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AS3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AT3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AU3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AV3" s="1" t="s">
@@ -1457,7 +1471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:31">
+    <row r="4" s="1" customFormat="1" spans="1:47">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,16 +1550,46 @@
       <c r="AE4" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
+    <row r="5" s="1" customFormat="1" spans="1:47">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
+    <row r="6" s="1" customFormat="1" spans="1:47">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="57" spans="1:49">
       <c r="A7" s="1" t="s">
@@ -1609,34 +1653,34 @@
       <c r="AK7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AL7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AM7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AN7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AO7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AP7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AQ7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AR7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AS7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AT7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AU7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AV7" s="1" t="s">
@@ -1748,7 +1792,7 @@
       <c r="AO13" s="2">
         <v>0</v>
       </c>
-      <c r="AS13" s="2" t="s">
+      <c r="AR13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AV13" s="2" t="b">
@@ -1792,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="AL16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="2">
         <v>1</v>
@@ -1839,7 +1883,7 @@
         <v>90</v>
       </c>
       <c r="AL18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="2">
         <v>1</v>
@@ -1941,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -1955,7 +1999,7 @@
       <c r="AQ24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AS24" s="2" t="s">
+      <c r="AR24" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AV24" s="2" t="b">

--- a/Luban/ExcelConfig/Datas/status.xlsx
+++ b/Luban/ExcelConfig/Datas/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="522"/>
+    <workbookView windowHeight="17680" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -237,10 +237,10 @@
     <t>复活状态</t>
   </si>
   <si>
-    <t>播放动画`1`0`die</t>
-  </si>
-  <si>
-    <t>死亡`0`0</t>
+    <t>播放动画,1,0,die</t>
+  </si>
+  <si>
+    <t>死亡,0,0</t>
   </si>
   <si>
     <t>复活</t>
@@ -249,10 +249,10 @@
     <t>Resurgence</t>
   </si>
   <si>
-    <t>播放动画`1`0`idle</t>
-  </si>
-  <si>
-    <t>复活`0`0</t>
+    <t>播放动画,1,0,idle</t>
+  </si>
+  <si>
+    <t>复活,0,0</t>
   </si>
   <si>
     <t>受击硬直</t>
@@ -264,7 +264,7 @@
     <t>受击硬直状态;控制类状态</t>
   </si>
   <si>
-    <t>播放动画`1`0`hitstun</t>
+    <t>播放动画,1,0,hitstun</t>
   </si>
   <si>
     <t>击退</t>
@@ -276,7 +276,7 @@
     <t>控制类状态</t>
   </si>
   <si>
-    <t>强制位移`1`0`0.5`0.5</t>
+    <t>强制位移,1,0,0.5,0.5</t>
   </si>
   <si>
     <t>流血</t>
@@ -294,7 +294,7 @@
     <t>固定值</t>
   </si>
   <si>
-    <t>流血`1`0`1`物攻/0.5/0;&gt;真实伤害`0.5</t>
+    <t>流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
   </si>
   <si>
     <t>霸体</t>
@@ -321,7 +321,7 @@
     <t>Ranshao</t>
   </si>
   <si>
-    <t>燃烧`1`0`1`物攻/0.5/0;&gt;物理伤害`0.5</t>
+    <t>燃烧,1,0,1,物攻/0.5/0;&gt;物理伤害,0.5</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1289,10 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR29" sqref="AR29"/>
+      <selection pane="bottomRight" activeCell="AW34" sqref="AW34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
@@ -1591,7 +1591,7 @@
       <c r="AT6" s="6"/>
       <c r="AU6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="57" spans="1:49">
+    <row r="7" s="1" customFormat="1" ht="56" spans="1:49">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>

--- a/Luban/ExcelConfig/Datas/status.xlsx
+++ b/Luban/ExcelConfig/Datas/status.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,15 @@
     <t>duration</t>
   </si>
   <si>
+    <t>stack#default=1</t>
+  </si>
+  <si>
+    <t>max_stack#default=1</t>
+  </si>
+  <si>
+    <t>numeric_infos</t>
+  </si>
+  <si>
     <t>numeric_nodes</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>list,numeric.BasicValueInfo</t>
+  </si>
+  <si>
     <t>list,numeric.AttachValueInfo</t>
   </si>
   <si>
@@ -134,16 +146,16 @@
     <t>type</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
     <t>layer</t>
   </si>
   <si>
     <t>model</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sign</t>
   </si>
   <si>
     <t>##group</t>
@@ -168,6 +180,12 @@
 (只是默认持续时间, 游戏中可以随时更改)</t>
   </si>
   <si>
+    <t>自己的数值</t>
+  </si>
+  <si>
+    <t>附加到目标身上的数值</t>
+  </si>
+  <si>
     <t>标签</t>
   </si>
   <si>
@@ -285,43 +303,46 @@
     <t>Liuxue</t>
   </si>
   <si>
+    <t>流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
+  </si>
+  <si>
+    <t>霸体</t>
+  </si>
+  <si>
+    <t>BaTi</t>
+  </si>
+  <si>
+    <t>受击硬直状态</t>
+  </si>
+  <si>
+    <t>无起手</t>
+  </si>
+  <si>
+    <t>WuQishou</t>
+  </si>
+  <si>
+    <t>下次释放技能时, 无起手时间, 触发后该状态消失</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>Ranshao</t>
+  </si>
+  <si>
     <t>攻击硬直</t>
   </si>
   <si>
-    <t>中间层</t>
-  </si>
-  <si>
-    <t>固定值</t>
-  </si>
-  <si>
-    <t>流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
-  </si>
-  <si>
-    <t>霸体</t>
-  </si>
-  <si>
-    <t>BaTi</t>
-  </si>
-  <si>
-    <t>受击硬直状态</t>
-  </si>
-  <si>
-    <t>无起手</t>
-  </si>
-  <si>
-    <t>WuQishou</t>
-  </si>
-  <si>
-    <t>下次释放技能时, 无起手时间, 触发后该状态消失</t>
-  </si>
-  <si>
-    <t>燃烧</t>
-  </si>
-  <si>
-    <t>Ranshao</t>
-  </si>
-  <si>
-    <t>燃烧,1,0,1,物攻/0.5/0;&gt;物理伤害,0.5</t>
+    <t>燃烧,1,0,1,物攻/0.5/0;&gt;物理伤害,1</t>
+  </si>
+  <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
+    <t>状态持续伤害,1,0,1,物攻/0.5/0;&gt;物理伤害,5</t>
+  </si>
+  <si>
+    <t>瘟疫传播,1,0,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -952,10 +973,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1282,61 +1303,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW28"/>
+  <dimension ref="A1:BW31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="AJ10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW34" sqref="AW34"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="6.75" style="2" customWidth="1"/>
-    <col min="30" max="30" width="6" style="2" customWidth="1"/>
-    <col min="31" max="31" width="4.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="23.75" style="2" customWidth="1"/>
-    <col min="33" max="33" width="10" style="2" customWidth="1"/>
-    <col min="34" max="35" width="8.875" style="2" customWidth="1"/>
-    <col min="36" max="41" width="10.875" style="2" customWidth="1"/>
-    <col min="42" max="42" width="8.875" style="2" customWidth="1"/>
-    <col min="43" max="44" width="12.875" style="2" customWidth="1"/>
-    <col min="45" max="47" width="8.875" style="2" customWidth="1"/>
-    <col min="48" max="48" width="13.25" style="2" customWidth="1"/>
-    <col min="49" max="49" width="33.125" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.4166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.4166666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.0833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="31" max="31" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="33" max="33" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="34" max="34" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="35" max="35" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="36" max="36" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="38" max="38" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="39" max="39" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="40" max="40" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="42" max="42" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="43" max="43" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="44" max="44" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="45" max="45" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="46" max="46" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="47" max="47" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="48" max="48" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="49" max="49" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="50" max="50" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="51" max="51" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="52" max="52" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="53" max="53" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="54" max="54" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="55" max="55" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="57" max="57" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="58" max="58" width="23.4166666666667" style="2" customWidth="1"/>
+    <col min="59" max="59" width="10" style="2" customWidth="1"/>
+    <col min="60" max="61" width="8.75" style="2" customWidth="1"/>
+    <col min="62" max="67" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="68" max="68" width="8.75" style="2" customWidth="1"/>
+    <col min="69" max="70" width="12.75" style="2" customWidth="1"/>
+    <col min="71" max="73" width="8.75" style="2" customWidth="1"/>
+    <col min="74" max="74" width="13" style="2" customWidth="1"/>
+    <col min="75" max="75" width="39.5833333333333" style="2" customWidth="1"/>
+    <col min="76" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:49">
+    <row r="1" s="1" customFormat="1" spans="1:75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,765 +1406,984 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AG1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:49">
+    <row r="2" s="1" customFormat="1" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>15</v>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:49">
+    <row r="3" s="1" customFormat="1" spans="1:75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
         <v>2</v>
       </c>
-      <c r="V3" s="1">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
         <v>3</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
         <v>4</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4">
         <v>5</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="6" t="s">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="BH3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="BK3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="BL3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="BM3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="BO3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="BP3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BR3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BS3" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="BT3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:47">
+    <row r="4" s="1" customFormat="1" spans="1:73">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" s="3" t="s">
+      <c r="S4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
+      <c r="V4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:47">
+    <row r="5" s="1" customFormat="1" spans="1:73">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:47">
+    <row r="6" s="1" customFormat="1" spans="1:73">
       <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="56" spans="1:49">
+    <row r="7" s="1" customFormat="1" ht="56" spans="1:75">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AL7" s="6" t="s">
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="BG7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN7" s="6" t="s">
+      <c r="BH7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AO7" s="6" t="s">
+      <c r="BI7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP7" s="6" t="s">
+      <c r="BJ7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="BK7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AR7" s="6" t="s">
+      <c r="BL7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AS7" s="6" t="s">
+      <c r="BM7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="BN7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AU7" s="6" t="s">
+      <c r="BO7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="BP7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="BQ7" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="BR7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:49">
+    <row r="10" spans="2:75">
       <c r="B10" s="2">
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ10" s="2">
+      <c r="BF10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ10" s="2">
         <v>1000</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="BK10" s="2">
         <v>1000</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="BL10" s="2">
         <v>1000</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="BM10" s="2">
         <v>1000</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="BN10" s="2">
         <v>1000</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="BO10" s="2">
         <v>1000</v>
       </c>
-      <c r="AP10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>69</v>
+      <c r="BP10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="11" spans="49:49">
-      <c r="AW11" s="2" t="s">
-        <v>70</v>
+    <row r="11" spans="75:75">
+      <c r="BW11" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:49">
+    <row r="13" spans="2:75">
       <c r="B13" s="2">
         <v>10001</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AF13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>73</v>
+      <c r="BV13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="49:49">
-      <c r="AW14" s="2" t="s">
-        <v>74</v>
+    <row r="14" spans="75:75">
+      <c r="BW14" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:49">
+    <row r="16" spans="2:75">
       <c r="B16" s="2">
         <v>10002</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2">
         <v>0.25</v>
       </c>
-      <c r="AF16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
+      <c r="BF16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="2">
         <v>60</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="BK16" s="2">
         <v>59</v>
       </c>
-      <c r="AL16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>78</v>
+      <c r="BL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW16" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:49">
+    <row r="18" spans="2:75">
       <c r="B18" s="2">
         <v>10003</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2">
+      <c r="BF18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="2">
         <v>90</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="BK18" s="2">
         <v>90</v>
       </c>
-      <c r="AL18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>78</v>
+      <c r="BL18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="19" spans="49:49">
-      <c r="AW19" s="2" t="s">
-        <v>82</v>
+    <row r="19" spans="75:75">
+      <c r="BW19" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:49">
+    <row r="21" spans="2:75">
       <c r="B21" s="2">
         <v>10004</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>88</v>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="BG21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW21" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:48">
+    <row r="24" spans="2:74">
       <c r="B24" s="2">
         <v>10005</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="AG24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="2">
+      <c r="BG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="2">
         <v>70</v>
       </c>
-      <c r="AK24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV24" s="2" t="b">
+      <c r="BK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:48">
+    <row r="26" spans="2:74">
       <c r="B26" s="2">
         <v>10006</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2">
         <v>-1</v>
       </c>
-      <c r="AG26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="2" t="b">
+      <c r="BG26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:49">
+    <row r="28" spans="2:75">
       <c r="B28" s="2">
         <v>10007</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2">
         <v>5</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>86</v>
+      <c r="H28" s="2">
+        <v>20</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:75">
+      <c r="B30" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="5">
+        <v>75</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW30" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="75:75">
+      <c r="BW31" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G1:AE1"/>
-    <mergeCell ref="AG1:AV1"/>
-    <mergeCell ref="G2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
+  <mergeCells count="21">
+    <mergeCell ref="I1:AF1"/>
+    <mergeCell ref="AG1:BE1"/>
+    <mergeCell ref="BG1:BV1"/>
+    <mergeCell ref="I2:AF2"/>
+    <mergeCell ref="AG2:BE2"/>
+    <mergeCell ref="BG2:BV2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="I7:AF7"/>
+    <mergeCell ref="AG7:BE7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/status.xlsx
+++ b/Luban/ExcelConfig/Datas/status.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>duration</t>
-  </si>
-  <si>
-    <t>stack#default=1</t>
-  </si>
-  <si>
-    <t>max_stack#default=1</t>
   </si>
   <si>
     <t>numeric_infos</t>
@@ -297,52 +291,52 @@
     <t>强制位移,1,0,0.5,0.5</t>
   </si>
   <si>
+    <t>霸体</t>
+  </si>
+  <si>
+    <t>BaTi</t>
+  </si>
+  <si>
+    <t>受击硬直状态</t>
+  </si>
+  <si>
+    <t>无起手</t>
+  </si>
+  <si>
+    <t>WuQishou</t>
+  </si>
+  <si>
+    <t>下次释放技能时, 无起手时间, 触发后该状态消失</t>
+  </si>
+  <si>
     <t>流血</t>
   </si>
   <si>
-    <t>Liuxue</t>
-  </si>
-  <si>
-    <t>流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
-  </si>
-  <si>
-    <t>霸体</t>
-  </si>
-  <si>
-    <t>BaTi</t>
-  </si>
-  <si>
-    <t>受击硬直状态</t>
-  </si>
-  <si>
-    <t>无起手</t>
-  </si>
-  <si>
-    <t>WuQishou</t>
-  </si>
-  <si>
-    <t>下次释放技能时, 无起手时间, 触发后该状态消失</t>
+    <t>最大叠加层数</t>
+  </si>
+  <si>
+    <t>流血,1,0,1,配方1/物攻/0.5/0;&gt;真实伤害,0.5</t>
   </si>
   <si>
     <t>燃烧</t>
   </si>
   <si>
-    <t>Ranshao</t>
-  </si>
-  <si>
     <t>攻击硬直</t>
   </si>
   <si>
-    <t>燃烧,1,0,1,物攻/0.5/0;&gt;物理伤害,1</t>
+    <t>燃烧,1,0,1,配方1/物攻/0.5/0;&gt;物理伤害,1</t>
   </si>
   <si>
     <t>瘟疫</t>
   </si>
   <si>
-    <t>状态持续伤害,1,0,1,物攻/0.5/0;&gt;物理伤害,5</t>
-  </si>
-  <si>
-    <t>瘟疫传播,1,0,1,1,1,1</t>
+    <t>状态持续伤害,1,0,1,配方1/物攻/0.5/0;&gt;物理伤害,1</t>
+  </si>
+  <si>
+    <t>瘟疫传播,1,0,1,1,1,2</t>
+  </si>
+  <si>
+    <t>中毒</t>
   </si>
 </sst>
 </file>
@@ -973,10 +967,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1303,14 +1297,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BW31"/>
+  <dimension ref="A1:BU33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1321,70 +1315,68 @@
     <col min="4" max="4" width="10.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.4166666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.4166666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.0833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="31" max="31" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="32" max="32" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="33" max="33" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="34" max="34" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="35" max="35" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="36" max="36" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="37" max="37" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="38" max="38" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="39" max="39" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="40" max="40" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="41" max="41" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="42" max="42" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="43" max="43" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="44" max="44" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="45" max="45" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="46" max="46" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="47" max="47" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="48" max="48" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="49" max="49" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="51" max="51" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="52" max="52" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="53" max="53" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="54" max="54" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="55" max="55" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="56" max="56" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="57" max="57" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="58" max="58" width="23.4166666666667" style="2" customWidth="1"/>
-    <col min="59" max="59" width="10" style="2" customWidth="1"/>
-    <col min="60" max="61" width="8.75" style="2" customWidth="1"/>
-    <col min="62" max="67" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="68" max="68" width="8.75" style="2" customWidth="1"/>
-    <col min="69" max="70" width="12.75" style="2" customWidth="1"/>
-    <col min="71" max="73" width="8.75" style="2" customWidth="1"/>
-    <col min="74" max="74" width="13" style="2" customWidth="1"/>
-    <col min="75" max="75" width="39.5833333333333" style="2" customWidth="1"/>
-    <col min="76" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="31" max="31" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="32" max="32" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="33" max="33" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="34" max="34" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="36" max="36" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="38" max="38" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="39" max="39" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="40" max="40" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="41" max="41" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="42" max="42" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="43" max="43" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="44" max="44" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="45" max="45" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="46" max="46" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="47" max="47" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="48" max="48" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="49" max="49" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="50" max="50" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="51" max="51" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="52" max="52" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="53" max="53" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="54" max="54" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="55" max="55" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="56" max="56" width="23.4166666666667" style="2" customWidth="1"/>
+    <col min="57" max="57" width="10" style="2" customWidth="1"/>
+    <col min="58" max="59" width="8.75" style="2" customWidth="1"/>
+    <col min="60" max="65" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="66" max="66" width="8.75" style="2" customWidth="1"/>
+    <col min="67" max="68" width="12.75" style="2" customWidth="1"/>
+    <col min="69" max="71" width="8.75" style="2" customWidth="1"/>
+    <col min="72" max="72" width="13" style="2" customWidth="1"/>
+    <col min="73" max="73" width="44.9166666666667" style="2" customWidth="1"/>
+    <col min="74" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:75">
+    <row r="1" s="1" customFormat="1" spans="1:73">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,138 +1398,132 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BG1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:73">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:75">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:73">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BF3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:75">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
-        <v>2</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4">
-        <v>3</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4">
-        <v>4</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>4</v>
-      </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BK3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="BL3" s="6" t="s">
@@ -1564,170 +1550,166 @@
       <c r="BS3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BT3" s="6" t="s">
+      <c r="BT3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BU3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BV3" s="1" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:71">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:73">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="AH4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="AJ4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="AL4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="AM4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="AO4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="AR4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="AT4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="AV4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="AW4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="AY4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="BA4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="BB4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
       <c r="BL4" s="6"/>
       <c r="BM4" s="6"/>
       <c r="BN4" s="6"/>
@@ -1736,13 +1718,13 @@
       <c r="BQ4" s="6"/>
       <c r="BR4" s="6"/>
       <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:73">
+    <row r="5" s="1" customFormat="1" spans="1:71">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
       <c r="BM5" s="6"/>
       <c r="BN5" s="6"/>
@@ -1751,13 +1733,13 @@
       <c r="BQ5" s="6"/>
       <c r="BR5" s="6"/>
       <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:73">
+    <row r="6" s="1" customFormat="1" spans="1:71">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
       <c r="BL6" s="6"/>
       <c r="BM6" s="6"/>
       <c r="BN6" s="6"/>
@@ -1766,83 +1748,85 @@
       <c r="BQ6" s="6"/>
       <c r="BR6" s="6"/>
       <c r="BS6" s="6"/>
-      <c r="BT6" s="6"/>
-      <c r="BU6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="56" spans="1:75">
+    <row r="7" s="1" customFormat="1" ht="56" spans="1:73">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3" t="s">
+      <c r="BE7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
       <c r="BF7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1855,10 +1839,10 @@
       <c r="BI7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="BJ7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BK7" s="1" t="s">
+      <c r="BK7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="BL7" s="6" t="s">
@@ -1885,50 +1869,50 @@
       <c r="BS7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BT7" s="6" t="s">
+      <c r="BT7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BU7" s="6" t="s">
+      <c r="BU7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:75">
+    <row r="10" spans="2:73">
       <c r="B10" s="2">
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
       </c>
-      <c r="BF10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>73</v>
+      <c r="BD10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>1000</v>
       </c>
       <c r="BJ10" s="2">
         <v>1000</v>
@@ -1942,347 +1926,353 @@
       <c r="BM10" s="2">
         <v>1000</v>
       </c>
-      <c r="BN10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="BO10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="BP10" s="2" t="s">
+      <c r="BN10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="73:73">
+      <c r="BU11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BV10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW10" s="2" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="11" spans="75:75">
-      <c r="BW11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:75">
+    <row r="13" spans="2:73">
       <c r="B13" s="2">
         <v>10001</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="73:73">
+      <c r="BU14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW13" s="2" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="14" spans="75:75">
-      <c r="BW14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:75">
+    <row r="16" spans="2:73">
       <c r="B16" s="2">
         <v>10002</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2">
         <v>0.25</v>
       </c>
-      <c r="BF16" s="2" t="s">
-        <v>83</v>
+      <c r="BD16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>60</v>
       </c>
       <c r="BI16" s="2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BJ16" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="BK16" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW16" s="2" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:75">
+    <row r="18" spans="2:73">
       <c r="B18" s="2">
         <v>10003</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
       </c>
-      <c r="BF18" s="2" t="s">
+      <c r="BD18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>90</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>90</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="73:73">
+      <c r="BU19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:72">
+      <c r="B21" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BG18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="2">
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>70</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:72">
+      <c r="B23" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BK18" s="2">
-        <v>90</v>
-      </c>
-      <c r="BL18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW18" s="2" t="s">
-        <v>84</v>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="75:75">
-      <c r="BW19" s="2" t="s">
-        <v>88</v>
+    <row r="25" spans="2:73">
+      <c r="B25" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="BE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU25" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:75">
-      <c r="B21" s="2">
-        <v>10004</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="BG21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:74">
-      <c r="B24" s="2">
-        <v>10005</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="2">
-        <v>70</v>
-      </c>
-      <c r="BK24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:74">
-      <c r="B26" s="2">
-        <v>10006</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="BG26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV26" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:75">
+    <row r="28" spans="2:73">
       <c r="B28" s="2">
         <v>10007</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2">
         <v>5</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H28" s="2">
-        <v>20</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="5">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="5">
         <v>15</v>
       </c>
+      <c r="BE28" s="2">
+        <v>1</v>
+      </c>
       <c r="BG28" s="2">
         <v>1</v>
       </c>
+      <c r="BH28" s="2">
+        <v>1</v>
+      </c>
       <c r="BI28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="2">
         <v>0</v>
@@ -2293,97 +2283,104 @@
       <c r="BM28" s="2">
         <v>0</v>
       </c>
-      <c r="BN28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW28" s="2" t="s">
-        <v>101</v>
+      <c r="BT28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU28" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:75">
+    <row r="30" spans="2:73">
       <c r="B30" s="2">
         <v>10008</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F30" s="2">
         <v>10</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="G30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="BE30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="5">
-        <v>75</v>
-      </c>
-      <c r="BG30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW30" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="31" spans="75:75">
-      <c r="BW31" s="2" t="s">
-        <v>104</v>
+    <row r="31" spans="73:73">
+      <c r="BU31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2">
+        <v>10009</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I1:AF1"/>
-    <mergeCell ref="AG1:BE1"/>
-    <mergeCell ref="BG1:BV1"/>
-    <mergeCell ref="I2:AF2"/>
-    <mergeCell ref="AG2:BE2"/>
-    <mergeCell ref="BG2:BV2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="I7:AF7"/>
-    <mergeCell ref="AG7:BE7"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="AE1:BC1"/>
+    <mergeCell ref="BE1:BT1"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="AE2:BC2"/>
+    <mergeCell ref="BE2:BT2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AO3:AS3"/>
+    <mergeCell ref="AT3:AX3"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="G7:AD7"/>
+    <mergeCell ref="AE7:BC7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/status.xlsx
+++ b/Luban/ExcelConfig/Datas/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" tabRatio="522"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +62,9 @@
     <t>main</t>
   </si>
   <si>
+    <t>*workers</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>status.StatusActionInfo</t>
   </si>
   <si>
+    <t>(list#sep=;),procedureline.WorkerInfo#sep=,</t>
+  </si>
+  <si>
     <t>time_scale</t>
   </si>
   <si>
@@ -98,37 +104,37 @@
     <t>enter_pri</t>
   </si>
   <si>
-    <t>resist_pri</t>
+    <t>obs_pri</t>
+  </si>
+  <si>
+    <t>keep_pri</t>
   </si>
   <si>
     <t>exclu_pri</t>
   </si>
   <si>
-    <t>keep_pri</t>
+    <t>run_pri</t>
   </si>
   <si>
     <t>dis_pri</t>
   </si>
   <si>
-    <t>run_pri</t>
-  </si>
-  <si>
     <t>sp_pass</t>
   </si>
   <si>
-    <t>sp_inter</t>
+    <t>sp_obs</t>
+  </si>
+  <si>
+    <t>sp_keep</t>
   </si>
   <si>
     <t>sp_exclu</t>
   </si>
   <si>
-    <t>sp_keep</t>
+    <t>sp_run</t>
   </si>
   <si>
     <t>sp_dis</t>
-  </si>
-  <si>
-    <t>sp_run</t>
   </si>
   <si>
     <t>allow_reenter</t>
@@ -198,36 +204,36 @@
     <t>阻挡优先级</t>
   </si>
   <si>
+    <t>保持优先级</t>
+  </si>
+  <si>
     <t>排挤优先级</t>
   </si>
   <si>
-    <t>保持优先级</t>
+    <t>运行优先级</t>
   </si>
   <si>
     <t>禁用优先级</t>
   </si>
   <si>
-    <t>运行优先级</t>
-  </si>
-  <si>
     <t>指定通过</t>
   </si>
   <si>
     <t>指定拦截</t>
   </si>
   <si>
+    <t>指定保持</t>
+  </si>
+  <si>
     <t>指定排挤</t>
   </si>
   <si>
-    <t>指定保持</t>
+    <t>指定运行</t>
   </si>
   <si>
     <t>指定禁用</t>
   </si>
   <si>
-    <t>指定运行</t>
-  </si>
-  <si>
     <t>允许重进</t>
   </si>
   <si>
@@ -315,7 +321,13 @@
     <t>最大叠加层数</t>
   </si>
   <si>
-    <t>流血,1,0,1,配方1/物攻/0.5/0;&gt;真实伤害,0.5</t>
+    <t>流血,1,0,1,配方1/物攻/0/50;&gt;真实伤害,0.5</t>
+  </si>
+  <si>
+    <t>大出血</t>
+  </si>
+  <si>
+    <t>流血,1,0,1,配方1/物攻/0/150;&gt;真实伤害,0.5</t>
   </si>
   <si>
     <t>燃烧</t>
@@ -324,19 +336,31 @@
     <t>攻击硬直</t>
   </si>
   <si>
-    <t>燃烧,1,0,1,配方1/物攻/0.5/0;&gt;物理伤害,1</t>
+    <t>燃烧,1,0,1,配方1/物攻/0/50;&gt;物理伤害,1</t>
   </si>
   <si>
     <t>瘟疫</t>
   </si>
   <si>
-    <t>状态持续伤害,1,0,1,配方1/物攻/0.5/0;&gt;物理伤害,1</t>
+    <t>状态持续伤害,1,0,1,配方1/物攻/0/50;&gt;物理伤害,1</t>
   </si>
   <si>
     <t>瘟疫传播,1,0,1,1,1,2</t>
   </si>
   <si>
     <t>中毒</t>
+  </si>
+  <si>
+    <t>弱小</t>
+  </si>
+  <si>
+    <t>威胁值</t>
+  </si>
+  <si>
+    <t>中间层</t>
+  </si>
+  <si>
+    <t>固定值</t>
   </si>
 </sst>
 </file>
@@ -1297,86 +1321,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BU33"/>
+  <dimension ref="A1:BV36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="BL10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="BV24" sqref="BV24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.4166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="27" max="27" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="31" max="31" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="32" max="32" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="33" max="33" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="34" max="34" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="35" max="35" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="36" max="36" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="37" max="37" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="38" max="38" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="39" max="39" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="40" max="40" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="41" max="41" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="42" max="42" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="43" max="43" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="44" max="44" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="45" max="45" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="46" max="46" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="47" max="47" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="48" max="48" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="49" max="49" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="50" max="50" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="51" max="51" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="52" max="52" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="53" max="53" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="54" max="54" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="55" max="55" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="56" max="56" width="23.4166666666667" style="2" customWidth="1"/>
-    <col min="57" max="57" width="10" style="2" customWidth="1"/>
-    <col min="58" max="59" width="8.75" style="2" customWidth="1"/>
-    <col min="60" max="65" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="66" max="66" width="8.75" style="2" customWidth="1"/>
-    <col min="67" max="68" width="12.75" style="2" customWidth="1"/>
-    <col min="69" max="71" width="8.75" style="2" customWidth="1"/>
-    <col min="72" max="72" width="13" style="2" customWidth="1"/>
-    <col min="73" max="73" width="44.9166666666667" style="2" customWidth="1"/>
-    <col min="74" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="6" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="6" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="6" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.875" style="2" customWidth="1"/>
+    <col min="31" max="33" width="7" style="2" customWidth="1"/>
+    <col min="34" max="34" width="6" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4.875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="5.125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="5.625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="6.75" style="2" customWidth="1"/>
+    <col min="39" max="39" width="6" style="2" customWidth="1"/>
+    <col min="40" max="40" width="4.875" style="2" customWidth="1"/>
+    <col min="41" max="41" width="5.125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="5.625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="6.75" style="2" customWidth="1"/>
+    <col min="44" max="44" width="6" style="2" customWidth="1"/>
+    <col min="45" max="45" width="4.875" style="2" customWidth="1"/>
+    <col min="46" max="46" width="5.125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="5.625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="6.75" style="2" customWidth="1"/>
+    <col min="49" max="49" width="6" style="2" customWidth="1"/>
+    <col min="50" max="50" width="4.875" style="2" customWidth="1"/>
+    <col min="51" max="51" width="5.125" style="2" customWidth="1"/>
+    <col min="52" max="52" width="5.625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="6.75" style="2" customWidth="1"/>
+    <col min="54" max="54" width="6" style="2" customWidth="1"/>
+    <col min="55" max="55" width="4.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="23.75" style="2" customWidth="1"/>
+    <col min="57" max="57" width="16.5" style="2" customWidth="1"/>
+    <col min="58" max="59" width="8.875" style="2" customWidth="1"/>
+    <col min="60" max="65" width="10.875" style="2" customWidth="1"/>
+    <col min="66" max="66" width="8.875" style="2" customWidth="1"/>
+    <col min="67" max="67" width="12.875" style="2" customWidth="1"/>
+    <col min="68" max="68" width="8.875" style="2" customWidth="1"/>
+    <col min="69" max="69" width="12.875" style="2" customWidth="1"/>
+    <col min="70" max="71" width="8.875" style="2" customWidth="1"/>
+    <col min="72" max="72" width="13.25" style="2" customWidth="1"/>
+    <col min="73" max="73" width="45.25" style="2" customWidth="1"/>
+    <col min="74" max="74" width="42.5" style="2" customWidth="1"/>
+    <col min="75" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:73">
+    <row r="1" s="1" customFormat="1" spans="1:74">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,40 +1435,46 @@
       <c r="BU1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="BV1" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:73">
+    <row r="2" s="1" customFormat="1" spans="1:74">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="BV2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:73">
@@ -1506,55 +1537,55 @@
         <v>4</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BJ3" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BK3" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BL3" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BM3" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BN3" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BO3" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BQ3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BR3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BS3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:71">
@@ -1562,151 +1593,151 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="Z4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AC4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AF4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AK4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AP4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AT4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AU4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AW4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AY4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AZ4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="BJ4" s="6"/>
       <c r="BK4" s="6"/>
@@ -1736,7 +1767,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:71">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
@@ -1749,27 +1780,27 @@
       <c r="BR6" s="6"/>
       <c r="BS6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="56" spans="1:73">
+    <row r="7" s="1" customFormat="1" ht="57" spans="1:73">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1795,7 +1826,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -1822,68 +1853,68 @@
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
       <c r="BD7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BJ7" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BK7" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BL7" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BM7" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BN7" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BO7" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BP7" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BQ7" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BR7" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BS7" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:73">
@@ -1891,22 +1922,22 @@
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BE10" s="2">
         <v>1</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BH10" s="2">
         <v>1000</v>
@@ -1927,18 +1958,15 @@
         <v>1000</v>
       </c>
       <c r="BN10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT10" s="2" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="BU10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="73:73">
       <c r="BU11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:73">
@@ -1946,51 +1974,48 @@
         <v>10001</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BD13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BE13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT13" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="BU13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="73:73">
       <c r="BU14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:73">
@@ -1998,16 +2023,16 @@
         <v>10002</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2">
         <v>0.25</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BE16" s="2">
         <v>1</v>
@@ -2019,13 +2044,13 @@
         <v>60</v>
       </c>
       <c r="BI16" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BL16" s="2">
         <v>0</v>
@@ -2033,11 +2058,8 @@
       <c r="BM16" s="2">
         <v>0</v>
       </c>
-      <c r="BT16" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="BU16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:73">
@@ -2045,16 +2067,16 @@
         <v>10003</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BE18" s="2">
         <v>1</v>
@@ -2069,10 +2091,10 @@
         <v>90</v>
       </c>
       <c r="BJ18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
@@ -2081,23 +2103,23 @@
         <v>0</v>
       </c>
       <c r="BU18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="73:73">
       <c r="BU19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:72">
+    <row r="21" spans="2:69">
       <c r="B21" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2115,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BK21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -2127,27 +2149,24 @@
         <v>0</v>
       </c>
       <c r="BO21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT21" s="2" t="b">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:72">
+    <row r="23" spans="2:65">
       <c r="B23" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
@@ -2174,27 +2193,24 @@
         <v>0</v>
       </c>
       <c r="BM23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:73">
       <c r="B25" s="2">
-        <v>10004</v>
+        <v>10006</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H25" s="2">
         <v>20</v>
@@ -2227,135 +2243,244 @@
       <c r="BM25" s="2">
         <v>0</v>
       </c>
-      <c r="BT25" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="BU25" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:73">
-      <c r="B28" s="2">
+    <row r="27" spans="2:73">
+      <c r="B27" s="2">
         <v>10007</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73">
+      <c r="B29" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>10</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="J29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="5">
         <v>15</v>
       </c>
-      <c r="BE28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU28" s="2" t="s">
-        <v>98</v>
+      <c r="BE29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="30" spans="2:73">
-      <c r="B30" s="2">
-        <v>10008</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="2">
+    <row r="31" spans="2:73">
+      <c r="B31" s="2">
+        <v>10009</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2">
         <v>10</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="BE30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU30" s="2" t="s">
-        <v>100</v>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="BE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="31" spans="73:73">
-      <c r="BU31" s="2" t="s">
-        <v>101</v>
+    <row r="32" spans="73:73">
+      <c r="BU32" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2">
-        <v>10009</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
+    <row r="34" spans="2:65">
+      <c r="B34" s="2">
+        <v>10010</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:65">
+      <c r="B36" s="2">
+        <v>10011</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>-50</v>
+      </c>
+      <c r="BE36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
